--- a/TestData/MGFF_TestData.xlsx
+++ b/TestData/MGFF_TestData.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Logout" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Template" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
     <t xml:space="preserve">testNameDetails</t>
   </si>
@@ -147,10 +148,10 @@
     <t xml:space="preserve">Scholar</t>
   </si>
   <si>
-    <t xml:space="preserve">nd1432@BLR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shalini@Navadhiti.Com</t>
+    <t xml:space="preserve">validate login feature with login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate with logout</t>
   </si>
   <si>
     <t xml:space="preserve">templatename</t>
@@ -392,11 +393,11 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="34.08"/>
@@ -619,56 +620,104 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="43.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="Shalini@Navadhiti.Com"/>
+    <hyperlink ref="E2" r:id="rId1" display="nd1432@blr"/>
+    <hyperlink ref="E3" r:id="rId2" display="nd1432@blr"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -687,11 +736,11 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P24" activeCellId="0" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.3"/>
@@ -774,4 +823,27 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/TestData/MGFF_TestData.xlsx
+++ b/TestData/MGFF_TestData.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\git\MGFF_Automation\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650AE1B9-D181-4EBD-861B-1B879014F21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Logout" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Template" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Logout" sheetId="2" r:id="rId2"/>
+    <sheet name="Template" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,206 +28,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
-  <si>
-    <t xml:space="preserve">testNameDetails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authorName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate login feature with valid credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeevitha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shalini@navadhiti.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nd1432@blr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shalini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate login feature with invalid credentials set 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssjhkjs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@sssss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate login feature with valid credentials set 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeevitha+71@navadhiti.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chetan1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counsellor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate login feature with invalid credentials set 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdsdssd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate login feature with valid credentials set 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeevitha+31@navadhiti.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indira1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate login feature with invalid credentials set 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">something</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate login feature with valid credentials set 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeevitha+2@navadhiti.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saanvi L Gowda1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saanvi L Gowda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate login feature with login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate with logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">templatename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is new template</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+  <si>
+    <t>testNameDetails</t>
+  </si>
+  <si>
+    <t>authorName</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>validate login feature with valid credentials</t>
+  </si>
+  <si>
+    <t>Jeevitha</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>shalini@navadhiti.com</t>
+  </si>
+  <si>
+    <t>nd1432@blr</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Shalini</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>validate login feature with invalid credentials set 1</t>
+  </si>
+  <si>
+    <t>ssjhkjs</t>
+  </si>
+  <si>
+    <t>@sssss</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>validate login feature with valid credentials set 2</t>
+  </si>
+  <si>
+    <t>jeevitha+71@navadhiti.com</t>
+  </si>
+  <si>
+    <t>chetan1234</t>
+  </si>
+  <si>
+    <t>Chetan</t>
+  </si>
+  <si>
+    <t>Counsellor</t>
+  </si>
+  <si>
+    <t>validate login feature with invalid credentials set 3</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>sdsdssd</t>
+  </si>
+  <si>
+    <t>validate login feature with valid credentials set 4</t>
+  </si>
+  <si>
+    <t>jeevitha+31@navadhiti.com</t>
+  </si>
+  <si>
+    <t>Indira1234</t>
+  </si>
+  <si>
+    <t>Indira</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>validate login feature with invalid credentials set 5</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>validate login feature with valid credentials set 6</t>
+  </si>
+  <si>
+    <t>Jeevitha+2@navadhiti.com</t>
+  </si>
+  <si>
+    <t>Saanvi L Gowda1234</t>
+  </si>
+  <si>
+    <t>Saanvi L Gowda</t>
+  </si>
+  <si>
+    <t>Scholar</t>
+  </si>
+  <si>
+    <t>Validate with logout</t>
+  </si>
+  <si>
+    <t>templatename</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>New template</t>
+  </si>
+  <si>
+    <t>This is new template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF2A00FF"/>
       <name val="Monospace"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF2A00FF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -241,88 +220,49 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -381,34 +321,360 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="34.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col min="1" max="1" width="41.6328125" customWidth="1"/>
+    <col min="2" max="4" width="34.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="1023" max="1024" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -460,7 +726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -482,7 +748,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -508,7 +774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -530,7 +796,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="14">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -556,7 +822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -578,7 +844,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -605,38 +871,30 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="43.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col min="1" max="1" width="45.453125" customWidth="1"/>
+    <col min="2" max="4" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="28.36328125" customWidth="1"/>
+    <col min="9" max="9" width="43.90625" customWidth="1"/>
+    <col min="1023" max="1024" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -688,41 +946,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="nd1432@blr"/>
-    <hyperlink ref="E3" r:id="rId2" display="nd1432@blr"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -730,27 +960,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P24" activeCellId="0" sqref="P24"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.24"/>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,13 +1003,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:10" ht="14">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,17 +1035,16 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -826,22 +1052,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
